--- a/Tos.FoodProcs.Web/templates/genshizaiZaikoNyuryoku_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/genshizaiZaikoNyuryoku_vi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn\FP-Lite HAINGOAI - VIET HOA\20250211_NEW\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\1.FP_Lite_Ver_2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9567F23-48DC-4406-9FEC-A7DA1A1AACD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,48 +76,178 @@
     <t>Nhập tồn kho nguyên vật liệu</t>
   </si>
   <si>
-    <t>Loại sản phẩm　　　　　　　　:</t>
-  </si>
-  <si>
-    <t>Nhóm sản phẩm　　　　　　　：</t>
-  </si>
-  <si>
-    <t>Kho　　　　　　　　　         　：</t>
-  </si>
-  <si>
-    <t>Ngày tồn kho　　　  　　　    　:</t>
-  </si>
-  <si>
-    <t>Chỉ hiển thị khi có tồn kho 
-tính toán hoặc tồn kho thực tế　：</t>
-  </si>
-  <si>
-    <t>Inventory type　 　   　 　     　 ：</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất　　　　　　 　    :</t>
-  </si>
-  <si>
-    <t>Người xuất　                               :</t>
-  </si>
-  <si>
-    <t>Phần không sử dụng　            　:</t>
-  </si>
-  <si>
-    <t>Tên sản phẩm　　　               　:</t>
-  </si>
-  <si>
-    <t>Phần sử dụng　　　　　 　　　:</t>
+    <r>
+      <t>Ngày tồn kho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Loại sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Kho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Tên sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Phần sử dụng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Phần không sử dụng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Inventory type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Ngày giờ xuất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Người xuất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Chỉ hiển thị khi có tồn kho 
+tính toán hoặc tồn kho thực tế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">          :</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0.000"/>
+    <numFmt numFmtId="180" formatCode="@* \:"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -152,6 +283,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,7 +363,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -259,8 +396,12 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -281,9 +422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -321,9 +462,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,7 +499,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,7 +534,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -566,7 +707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -574,102 +715,103 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="18" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="34.21875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="34.109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="38.77734375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="38.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="43.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="34.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="34.125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="38.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="30.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="38.75" style="7" customWidth="1"/>
     <col min="12" max="12" width="16" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="7" customWidth="1"/>
     <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" s="6" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,739 +855,739 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G125" s="8"/>
     </row>
-    <row r="126" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G126" s="8"/>
     </row>
-    <row r="127" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G127" s="8"/>
     </row>
-    <row r="128" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G128" s="8"/>
     </row>
-    <row r="129" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G129" s="8"/>
     </row>
-    <row r="130" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G130" s="8"/>
     </row>
-    <row r="131" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G131" s="8"/>
     </row>
-    <row r="132" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G132" s="8"/>
     </row>
-    <row r="133" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G133" s="8"/>
     </row>
-    <row r="134" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G134" s="8"/>
     </row>
-    <row r="135" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G135" s="8"/>
     </row>
-    <row r="136" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G136" s="8"/>
     </row>
-    <row r="137" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G137" s="8"/>
     </row>
-    <row r="138" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G138" s="8"/>
     </row>
-    <row r="139" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G139" s="8"/>
     </row>
-    <row r="140" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G140" s="8"/>
     </row>
-    <row r="141" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G141" s="8"/>
     </row>
-    <row r="142" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G142" s="8"/>
     </row>
-    <row r="143" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G143" s="8"/>
     </row>
-    <row r="144" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G144" s="8"/>
     </row>
-    <row r="145" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G145" s="8"/>
     </row>
-    <row r="146" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G146" s="8"/>
     </row>
-    <row r="147" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G147" s="8"/>
     </row>
-    <row r="148" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G148" s="8"/>
     </row>
-    <row r="149" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G149" s="8"/>
     </row>
-    <row r="150" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G150" s="8"/>
     </row>
-    <row r="151" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G151" s="8"/>
     </row>
-    <row r="152" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G152" s="8"/>
     </row>
-    <row r="153" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G153" s="8"/>
     </row>
-    <row r="154" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G154" s="8"/>
     </row>
-    <row r="155" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G155" s="8"/>
     </row>
-    <row r="156" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G156" s="8"/>
     </row>
-    <row r="157" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G157" s="8"/>
     </row>
-    <row r="158" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G158" s="8"/>
     </row>
-    <row r="159" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G159" s="8"/>
     </row>
-    <row r="160" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G160" s="8"/>
     </row>
-    <row r="161" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G161" s="8"/>
     </row>
-    <row r="162" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G162" s="8"/>
     </row>
-    <row r="163" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G163" s="8"/>
     </row>
-    <row r="164" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G164" s="8"/>
     </row>
-    <row r="165" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G165" s="8"/>
     </row>
-    <row r="166" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G166" s="8"/>
     </row>
-    <row r="167" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G167" s="8"/>
     </row>
-    <row r="168" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G168" s="8"/>
     </row>
-    <row r="169" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G169" s="8"/>
     </row>
-    <row r="170" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G170" s="8"/>
     </row>
-    <row r="171" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G171" s="8"/>
     </row>
-    <row r="172" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G172" s="8"/>
     </row>
-    <row r="173" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G173" s="8"/>
     </row>
-    <row r="174" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G174" s="8"/>
     </row>
-    <row r="175" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G175" s="8"/>
     </row>
-    <row r="176" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G176" s="8"/>
     </row>
-    <row r="177" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G177" s="8"/>
     </row>
-    <row r="178" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G178" s="8"/>
     </row>
-    <row r="179" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G179" s="8"/>
     </row>
-    <row r="180" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G180" s="8"/>
     </row>
-    <row r="181" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G181" s="8"/>
     </row>
-    <row r="182" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G182" s="8"/>
     </row>
-    <row r="183" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G183" s="8"/>
     </row>
-    <row r="184" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G184" s="8"/>
     </row>
-    <row r="185" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G185" s="8"/>
     </row>
-    <row r="186" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G186" s="8"/>
     </row>
-    <row r="187" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G187" s="8"/>
     </row>
-    <row r="188" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G188" s="8"/>
     </row>
-    <row r="189" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G189" s="8"/>
     </row>
-    <row r="190" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G190" s="8"/>
     </row>
-    <row r="191" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G191" s="8"/>
     </row>
-    <row r="192" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G192" s="8"/>
     </row>
-    <row r="193" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G193" s="8"/>
     </row>
-    <row r="194" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G194" s="8"/>
     </row>
-    <row r="195" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G195" s="8"/>
     </row>
-    <row r="196" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G196" s="8"/>
     </row>
-    <row r="197" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G197" s="8"/>
     </row>
-    <row r="198" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G198" s="8"/>
     </row>
-    <row r="199" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G199" s="8"/>
     </row>
-    <row r="200" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G200" s="8"/>
     </row>
-    <row r="201" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G201" s="8"/>
     </row>
-    <row r="202" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G203" s="8"/>
     </row>
-    <row r="204" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G205" s="8"/>
     </row>
-    <row r="206" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G206" s="8"/>
     </row>
-    <row r="207" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G207" s="8"/>
     </row>
-    <row r="208" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G208" s="8"/>
     </row>
-    <row r="209" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G209" s="8"/>
     </row>
-    <row r="210" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G210" s="8"/>
     </row>
-    <row r="211" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G211" s="8"/>
     </row>
-    <row r="212" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G212" s="8"/>
     </row>
-    <row r="213" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G213" s="8"/>
     </row>
-    <row r="214" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G214" s="8"/>
     </row>
-    <row r="215" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G215" s="8"/>
     </row>
-    <row r="216" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G216" s="8"/>
     </row>
-    <row r="217" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G217" s="8"/>
     </row>
-    <row r="218" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G218" s="8"/>
     </row>
-    <row r="219" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G219" s="8"/>
     </row>
-    <row r="220" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G220" s="8"/>
     </row>
-    <row r="221" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G221" s="8"/>
     </row>
-    <row r="222" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G222" s="8"/>
     </row>
-    <row r="223" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G223" s="8"/>
     </row>
-    <row r="224" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G224" s="8"/>
     </row>
-    <row r="225" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G225" s="8"/>
     </row>
-    <row r="226" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G226" s="8"/>
     </row>
-    <row r="227" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G227" s="8"/>
     </row>
-    <row r="228" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G228" s="8"/>
     </row>
-    <row r="229" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G229" s="8"/>
     </row>
-    <row r="230" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G230" s="8"/>
     </row>
-    <row r="231" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G231" s="8"/>
     </row>
-    <row r="232" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G232" s="8"/>
     </row>
-    <row r="233" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G233" s="8"/>
     </row>
-    <row r="234" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G234" s="8"/>
     </row>
-    <row r="235" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G235" s="8"/>
     </row>
-    <row r="236" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G236" s="8"/>
     </row>
-    <row r="237" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G237" s="8"/>
     </row>
-    <row r="238" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G238" s="8"/>
     </row>
-    <row r="239" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G239" s="8"/>
     </row>
-    <row r="240" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G240" s="8"/>
     </row>
-    <row r="241" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G241" s="8"/>
     </row>
-    <row r="242" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G242" s="8"/>
     </row>
-    <row r="243" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G243" s="8"/>
     </row>
-    <row r="244" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G244" s="8"/>
     </row>
-    <row r="245" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G245" s="8"/>
     </row>
-    <row r="246" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G246" s="8"/>
     </row>
-    <row r="247" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G247" s="8"/>
     </row>
-    <row r="248" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G248" s="8"/>
     </row>
-    <row r="249" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G249" s="8"/>
     </row>
-    <row r="250" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G250" s="8"/>
     </row>
-    <row r="251" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G251" s="8"/>
     </row>
-    <row r="252" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G252" s="8"/>
     </row>
-    <row r="253" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G253" s="8"/>
     </row>
-    <row r="254" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G254" s="8"/>
     </row>
-    <row r="255" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G255" s="8"/>
     </row>
-    <row r="256" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G256" s="8"/>
     </row>
-    <row r="257" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G257" s="8"/>
     </row>
-    <row r="258" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G258" s="8"/>
     </row>
-    <row r="259" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G259" s="8"/>
     </row>
-    <row r="260" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G260" s="8"/>
     </row>
   </sheetData>
